--- a/server/resource/excel/ExportResult.xlsx
+++ b/server/resource/excel/ExportResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>序号</t>
   </si>
@@ -86,6 +86,29 @@
   </si>
   <si>
     <t>官网</t>
+  </si>
+  <si>
+    <t>2021-07-13 09:51:06 +0800 CST</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>www.bgy.com.cn
+cn.bgy.com.cn
+bgy.com.cn</t>
+  </si>
+  <si>
+    <t>未指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 443</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2021-07-07 15:23:35 +0800 CST</t>
   </si>
 </sst>
 </file>
@@ -485,6 +508,62 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="true">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
